--- a/konig-spreadsheet/src/test/resources/omcs-oracle-table.xlsx
+++ b/konig-spreadsheet/src/test/resources/omcs-oracle-table.xlsx
@@ -108,7 +108,7 @@
     <t>testOracleInstance</t>
   </si>
   <si>
-    <t>omcsDatabaseId</t>
+    <t>oracleSchema</t>
   </si>
 </sst>
 </file>
@@ -28468,12 +28468,13 @@
   <dimension ref="A1:AF3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="11.77734375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16.109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:32" s="20" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">

--- a/konig-spreadsheet/src/test/resources/omcs-oracle-table.xlsx
+++ b/konig-spreadsheet/src/test/resources/omcs-oracle-table.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9192" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9192" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Ontologies" sheetId="1" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="26">
   <si>
     <t>Ontology Name</t>
   </si>
@@ -93,22 +93,13 @@
     <t>xsd:string</t>
   </si>
   <si>
-    <t>OracleTable</t>
-  </si>
-  <si>
     <t>Setting Name</t>
   </si>
   <si>
     <t>Setting Value</t>
   </si>
   <si>
-    <t>omcsInstanceId</t>
-  </si>
-  <si>
-    <t>testOracleInstance</t>
-  </si>
-  <si>
-    <t>oracleSchema</t>
+    <t>OracleTable(oracleHost:"devHost")</t>
   </si>
 </sst>
 </file>
@@ -28380,16 +28371,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AD5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E23" sqref="E23"/>
+      <selection pane="bottomLeft" activeCell="E15" sqref="E15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="17.33203125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="22.44140625" customWidth="1"/>
     <col min="2" max="2" width="14.5546875" customWidth="1"/>
-    <col min="4" max="4" width="25.5546875" customWidth="1"/>
+    <col min="4" max="4" width="29.21875" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="31" customWidth="1"/>
   </cols>
   <sheetData>
@@ -28450,7 +28441,7 @@
         <v>20</v>
       </c>
       <c r="D3" s="24" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
     </row>
     <row r="5" spans="1:30" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -28465,10 +28456,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AF3"/>
+  <dimension ref="A1:AF1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G19" sqref="G19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -28479,10 +28470,10 @@
   <sheetData>
     <row r="1" spans="1:32" s="20" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="12" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B1" s="12" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C1" s="5"/>
       <c r="D1" s="12"/>
@@ -28514,22 +28505,6 @@
       <c r="AD1" s="14"/>
       <c r="AE1" s="14"/>
       <c r="AF1" s="14"/>
-    </row>
-    <row r="2" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>26</v>
-      </c>
-      <c r="B2" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="3" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>28</v>
-      </c>
-      <c r="B3" t="s">
-        <v>10</v>
-      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/konig-spreadsheet/src/test/resources/omcs-oracle-table.xlsx
+++ b/konig-spreadsheet/src/test/resources/omcs-oracle-table.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9192" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9192" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Ontologies" sheetId="1" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="29">
   <si>
     <t>Ontology Name</t>
   </si>
@@ -100,6 +100,15 @@
   </si>
   <si>
     <t>OracleTable(oracleHost:"devHost")</t>
+  </si>
+  <si>
+    <t>oracleSchema</t>
+  </si>
+  <si>
+    <t>omcsInstanceId</t>
+  </si>
+  <si>
+    <t>test</t>
   </si>
 </sst>
 </file>
@@ -28371,7 +28380,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AD5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="E15" sqref="E15"/>
     </sheetView>
@@ -28456,15 +28465,15 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AF1"/>
+  <dimension ref="A1:AF3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G19" sqref="G19"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="11.77734375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="13.88671875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="16.109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -28505,6 +28514,22 @@
       <c r="AD1" s="14"/>
       <c r="AE1" s="14"/>
       <c r="AF1" s="14"/>
+    </row>
+    <row r="2" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>26</v>
+      </c>
+      <c r="B2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>27</v>
+      </c>
+      <c r="B3" t="s">
+        <v>28</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
